--- a/Stream/results/stream-triad.xlsx
+++ b/Stream/results/stream-triad.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="24709"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20900" windowHeight="20180" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24960" windowHeight="20180" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="19">
   <si>
     <t>Native</t>
   </si>
@@ -136,8 +136,20 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="85">
+  <cellStyleXfs count="97">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -230,7 +242,7 @@
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="85">
+  <cellStyles count="97">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -273,6 +285,12 @@
     <cellStyle name="Followed Hyperlink" xfId="80" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="82" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="84" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="86" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="88" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="90" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="92" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="94" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="96" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -315,6 +333,12 @@
     <cellStyle name="Hyperlink" xfId="79" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="81" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="83" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="85" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="87" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="89" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="91" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="93" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="95" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -369,16 +393,16 @@
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="4"/>
                   <c:pt idx="0">
-                    <c:v>0.0116</c:v>
+                    <c:v>0.00866686</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>0.0216</c:v>
+                    <c:v>0.00880716</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>0.0138</c:v>
+                    <c:v>0.00859137</c:v>
                   </c:pt>
                   <c:pt idx="3">
-                    <c:v>0.0183</c:v>
+                    <c:v>0.0100673</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
@@ -390,16 +414,16 @@
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="4"/>
                   <c:pt idx="0">
-                    <c:v>0.0117</c:v>
+                    <c:v>0.00866686</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>0.0114</c:v>
+                    <c:v>0.00880716</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>0.0139</c:v>
+                    <c:v>0.00859137</c:v>
                   </c:pt>
                   <c:pt idx="3">
-                    <c:v>0.0153</c:v>
+                    <c:v>0.0100673</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
@@ -432,16 +456,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>22.5262</c:v>
+                  <c:v>22.5271</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>22.5298</c:v>
+                  <c:v>22.5314</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>25.1241</c:v>
+                  <c:v>25.1231</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>25.1501</c:v>
+                  <c:v>25.1503</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -473,16 +497,16 @@
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="4"/>
                   <c:pt idx="0">
-                    <c:v>0.0117</c:v>
+                    <c:v>0.00635658</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>0.015</c:v>
+                    <c:v>0.00652341</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>0.0123</c:v>
+                    <c:v>0.00986284</c:v>
                   </c:pt>
                   <c:pt idx="3">
-                    <c:v>0.017</c:v>
+                    <c:v>0.00854913</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
@@ -494,16 +518,16 @@
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="4"/>
                   <c:pt idx="0">
-                    <c:v>0.0089</c:v>
+                    <c:v>0.00635658</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>0.0058</c:v>
+                    <c:v>0.00652341</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>0.0206</c:v>
+                    <c:v>0.00986284</c:v>
                   </c:pt>
                   <c:pt idx="3">
-                    <c:v>0.0121</c:v>
+                    <c:v>0.00854913</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
@@ -536,16 +560,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>22.5191</c:v>
+                  <c:v>22.5215</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>22.5182</c:v>
+                  <c:v>22.5204</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>25.1209</c:v>
+                  <c:v>25.12</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>25.1424</c:v>
+                  <c:v>25.1433</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -577,16 +601,16 @@
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="4"/>
                   <c:pt idx="0">
-                    <c:v>0.0225</c:v>
+                    <c:v>0.0254166</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>0.0208</c:v>
+                    <c:v>0.0222628</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>0.0262</c:v>
+                    <c:v>0.0273085</c:v>
                   </c:pt>
                   <c:pt idx="3">
-                    <c:v>0.0241</c:v>
+                    <c:v>0.0303889</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
@@ -598,16 +622,16 @@
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="4"/>
                   <c:pt idx="0">
-                    <c:v>0.0638</c:v>
+                    <c:v>0.0254166</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>0.0451</c:v>
+                    <c:v>0.0222628</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>0.0525</c:v>
+                    <c:v>0.0273085</c:v>
                   </c:pt>
                   <c:pt idx="3">
-                    <c:v>0.06</c:v>
+                    <c:v>0.0303889</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
@@ -640,16 +664,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>22.2853</c:v>
+                  <c:v>22.2813</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>22.2854</c:v>
+                  <c:v>22.2785</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>24.8487</c:v>
+                  <c:v>24.8471</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>24.8735</c:v>
+                  <c:v>24.8676</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -664,11 +688,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="-2118930632"/>
-        <c:axId val="-2118927576"/>
+        <c:axId val="2133087096"/>
+        <c:axId val="2133084024"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-2118930632"/>
+        <c:axId val="2133087096"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -677,7 +701,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2118927576"/>
+        <c:crossAx val="2133084024"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -685,7 +709,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2118927576"/>
+        <c:axId val="2133084024"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0.0"/>
@@ -697,7 +721,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2118930632"/>
+        <c:crossAx val="2133087096"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -766,16 +790,16 @@
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="4"/>
                   <c:pt idx="0">
-                    <c:v>0.1744</c:v>
+                    <c:v>0.0621062</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>0.0649</c:v>
+                    <c:v>0.0779329</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>0.6424</c:v>
+                    <c:v>0.207143</c:v>
                   </c:pt>
                   <c:pt idx="3">
-                    <c:v>0.0518</c:v>
+                    <c:v>0.118483</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
@@ -787,16 +811,16 @@
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="4"/>
                   <c:pt idx="0">
-                    <c:v>0.0766</c:v>
+                    <c:v>0.0621062</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>0.1744</c:v>
+                    <c:v>0.0779329</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>0.1748</c:v>
+                    <c:v>0.207143</c:v>
                   </c:pt>
                   <c:pt idx="3">
-                    <c:v>0.3518</c:v>
+                    <c:v>0.118483</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
@@ -829,16 +853,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>41.2521</c:v>
+                  <c:v>41.2674</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>41.2623</c:v>
+                  <c:v>41.2465</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>45.7425</c:v>
+                  <c:v>45.7927</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>45.657</c:v>
+                  <c:v>45.6003</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -870,16 +894,16 @@
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="4"/>
                   <c:pt idx="0">
-                    <c:v>0.1371</c:v>
+                    <c:v>0.0844086</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>0.0864</c:v>
+                    <c:v>0.0553427</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>0.6856</c:v>
+                    <c:v>0.554563</c:v>
                   </c:pt>
                   <c:pt idx="3">
-                    <c:v>0.8264</c:v>
+                    <c:v>0.488483</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
@@ -891,16 +915,16 @@
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="4"/>
                   <c:pt idx="0">
-                    <c:v>0.1971</c:v>
+                    <c:v>0.0844086</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>0.0904</c:v>
+                    <c:v>0.0553427</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>1.3332</c:v>
+                    <c:v>0.554563</c:v>
                   </c:pt>
                   <c:pt idx="3">
-                    <c:v>0.8557</c:v>
+                    <c:v>0.488483</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
@@ -933,16 +957,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>41.2004</c:v>
+                  <c:v>41.2016</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>41.2266</c:v>
+                  <c:v>41.2346</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>45.6813</c:v>
+                  <c:v>45.6228</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>45.594</c:v>
+                  <c:v>45.6307</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -974,16 +998,16 @@
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="4"/>
                   <c:pt idx="0">
-                    <c:v>0.2009</c:v>
+                    <c:v>0.214435</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>0.2433</c:v>
+                    <c:v>0.153361</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>0.314</c:v>
+                    <c:v>0.193216</c:v>
                   </c:pt>
                   <c:pt idx="3">
-                    <c:v>0.4201</c:v>
+                    <c:v>0.198607</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
@@ -995,16 +1019,16 @@
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="4"/>
                   <c:pt idx="0">
-                    <c:v>0.4238</c:v>
+                    <c:v>0.214435</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>0.2243</c:v>
+                    <c:v>0.153361</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>0.3376</c:v>
+                    <c:v>0.193216</c:v>
                   </c:pt>
                   <c:pt idx="3">
-                    <c:v>0.3341</c:v>
+                    <c:v>0.198607</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
@@ -1037,16 +1061,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>40.0956</c:v>
+                  <c:v>40.0509</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>39.9408</c:v>
+                  <c:v>40.006</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>44.978</c:v>
+                  <c:v>44.9899</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>45.0248</c:v>
+                  <c:v>45.0213</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1061,11 +1085,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="-2118888840"/>
-        <c:axId val="-2118885784"/>
+        <c:axId val="2137660984"/>
+        <c:axId val="2137664040"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-2118888840"/>
+        <c:axId val="2137660984"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1075,7 +1099,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2118885784"/>
+        <c:crossAx val="2137664040"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1083,7 +1107,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2118885784"/>
+        <c:axId val="2137664040"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0.0"/>
@@ -1095,7 +1119,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2118888840"/>
+        <c:crossAx val="2137660984"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1506,10 +1530,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A16:J33"/>
+  <dimension ref="A16:J47"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G34" sqref="G34"/>
+      <selection activeCell="M17" sqref="M17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -1568,30 +1592,30 @@
         <v>6</v>
       </c>
       <c r="B19">
-        <v>22.526199999999999</v>
+        <v>22.527100000000001</v>
       </c>
       <c r="C19">
-        <v>22.519100000000002</v>
+        <v>22.5215</v>
       </c>
       <c r="D19">
-        <v>22.285299999999999</v>
+        <v>22.281300000000002</v>
       </c>
       <c r="E19">
-        <v>41.252099999999999</v>
+        <v>41.267400000000002</v>
       </c>
       <c r="F19">
-        <v>41.200400000000002</v>
+        <v>41.201599999999999</v>
       </c>
       <c r="G19">
-        <v>40.095599999999997</v>
+        <v>40.050899999999999</v>
       </c>
       <c r="I19">
         <f>(1-MIN(B19:D19)/MAX(B19:D19))*100</f>
-        <v>1.069421384876279</v>
+        <v>1.0911302386902855</v>
       </c>
       <c r="J19">
         <f>(1-MIN(E19:G19)/MAX(E19:G19))*100</f>
-        <v>2.8034936403237731</v>
+        <v>2.9478474534378352</v>
       </c>
     </row>
     <row r="20" spans="1:10">
@@ -1599,30 +1623,30 @@
         <v>7</v>
       </c>
       <c r="B20">
-        <v>22.529800000000002</v>
+        <v>22.531400000000001</v>
       </c>
       <c r="C20">
-        <v>22.5182</v>
+        <v>22.520399999999999</v>
       </c>
       <c r="D20">
-        <v>22.285399999999999</v>
+        <v>22.278500000000001</v>
       </c>
       <c r="E20">
-        <v>41.262300000000003</v>
+        <v>41.246499999999997</v>
       </c>
       <c r="F20">
-        <v>41.226599999999998</v>
+        <v>41.2346</v>
       </c>
       <c r="G20">
-        <v>39.940800000000003</v>
+        <v>40.006</v>
       </c>
       <c r="I20">
         <f t="shared" ref="I20:I22" si="0">(1-MIN(B20:D20)/MAX(B20:D20))*100</f>
-        <v>1.0847854841143811</v>
+        <v>1.122433581579485</v>
       </c>
       <c r="J20">
         <f t="shared" ref="J20:J22" si="1">(1-MIN(E20:G20)/MAX(E20:G20))*100</f>
-        <v>3.2026813822787381</v>
+        <v>3.0075279114591513</v>
       </c>
     </row>
     <row r="21" spans="1:10">
@@ -1630,30 +1654,30 @@
         <v>8</v>
       </c>
       <c r="B21">
-        <v>25.124099999999999</v>
+        <v>25.123100000000001</v>
       </c>
       <c r="C21">
-        <v>25.120899999999999</v>
+        <v>25.12</v>
       </c>
       <c r="D21">
-        <v>24.848700000000001</v>
+        <v>24.847100000000001</v>
       </c>
       <c r="E21">
-        <v>45.7425</v>
+        <v>45.792700000000004</v>
       </c>
       <c r="F21">
-        <v>45.6813</v>
+        <v>45.622799999999998</v>
       </c>
       <c r="G21">
-        <v>44.978000000000002</v>
+        <v>44.989899999999999</v>
       </c>
       <c r="I21">
         <f t="shared" si="0"/>
-        <v>1.0961586683702063</v>
+        <v>1.0985905401801555</v>
       </c>
       <c r="J21">
         <f t="shared" si="1"/>
-        <v>1.6713122369787392</v>
+        <v>1.7531178550293069</v>
       </c>
     </row>
     <row r="22" spans="1:10">
@@ -1661,30 +1685,30 @@
         <v>9</v>
       </c>
       <c r="B22">
-        <v>25.150099999999998</v>
+        <v>25.150300000000001</v>
       </c>
       <c r="C22">
-        <v>25.142399999999999</v>
+        <v>25.1433</v>
       </c>
       <c r="D22">
-        <v>24.8735</v>
+        <v>24.867599999999999</v>
       </c>
       <c r="E22">
-        <v>45.656999999999996</v>
+        <v>45.600299999999997</v>
       </c>
       <c r="F22">
-        <v>45.594000000000001</v>
+        <v>45.630699999999997</v>
       </c>
       <c r="G22">
-        <v>45.024799999999999</v>
+        <v>45.021299999999997</v>
       </c>
       <c r="I22">
         <f t="shared" si="0"/>
-        <v>1.0997968198933505</v>
+        <v>1.1240422579452458</v>
       </c>
       <c r="J22">
         <f t="shared" si="1"/>
-        <v>1.3846726679370036</v>
+        <v>1.3355043863013338</v>
       </c>
     </row>
     <row r="23" spans="1:10">
@@ -1692,22 +1716,22 @@
         <v>11</v>
       </c>
       <c r="B23">
-        <v>1.1599999999999999E-2</v>
+        <v>8.6668600000000002E-3</v>
       </c>
       <c r="C23">
-        <v>1.17E-2</v>
+        <v>6.3565799999999997E-3</v>
       </c>
       <c r="D23">
-        <v>2.2499999999999999E-2</v>
+        <v>2.5416600000000001E-2</v>
       </c>
       <c r="E23">
-        <v>0.1744</v>
+        <v>6.21062E-2</v>
       </c>
       <c r="F23">
-        <v>0.1371</v>
+        <v>8.44086E-2</v>
       </c>
       <c r="G23">
-        <v>0.2009</v>
+        <v>0.21443499999999999</v>
       </c>
     </row>
     <row r="24" spans="1:10">
@@ -1715,22 +1739,22 @@
         <v>13</v>
       </c>
       <c r="B24">
-        <v>2.1600000000000001E-2</v>
+        <v>8.8071599999999996E-3</v>
       </c>
       <c r="C24">
-        <v>1.4999999999999999E-2</v>
+        <v>6.5234100000000003E-3</v>
       </c>
       <c r="D24">
-        <v>2.0799999999999999E-2</v>
+        <v>2.2262799999999999E-2</v>
       </c>
       <c r="E24">
-        <v>6.4899999999999999E-2</v>
+        <v>7.7932899999999999E-2</v>
       </c>
       <c r="F24">
-        <v>8.6400000000000005E-2</v>
+        <v>5.5342700000000002E-2</v>
       </c>
       <c r="G24">
-        <v>0.24329999999999999</v>
+        <v>0.153361</v>
       </c>
     </row>
     <row r="25" spans="1:10">
@@ -1738,22 +1762,22 @@
         <v>15</v>
       </c>
       <c r="B25">
-        <v>1.38E-2</v>
+        <v>8.5913699999999992E-3</v>
       </c>
       <c r="C25">
-        <v>1.23E-2</v>
+        <v>9.8628399999999995E-3</v>
       </c>
       <c r="D25">
-        <v>2.6200000000000001E-2</v>
+        <v>2.7308499999999999E-2</v>
       </c>
       <c r="E25">
-        <v>0.64239999999999997</v>
+        <v>0.20714299999999999</v>
       </c>
       <c r="F25">
-        <v>0.68559999999999999</v>
+        <v>0.55456300000000003</v>
       </c>
       <c r="G25">
-        <v>0.314</v>
+        <v>0.193216</v>
       </c>
     </row>
     <row r="26" spans="1:10">
@@ -1761,22 +1785,22 @@
         <v>17</v>
       </c>
       <c r="B26">
-        <v>1.83E-2</v>
+        <v>1.00673E-2</v>
       </c>
       <c r="C26">
-        <v>1.7000000000000001E-2</v>
+        <v>8.5491300000000003E-3</v>
       </c>
       <c r="D26">
-        <v>2.41E-2</v>
+        <v>3.03889E-2</v>
       </c>
       <c r="E26">
-        <v>5.1799999999999999E-2</v>
+        <v>0.118483</v>
       </c>
       <c r="F26">
-        <v>0.82640000000000002</v>
+        <v>0.488483</v>
       </c>
       <c r="G26">
-        <v>0.42009999999999997</v>
+        <v>0.19860700000000001</v>
       </c>
     </row>
     <row r="27" spans="1:10">
@@ -1784,22 +1808,22 @@
         <v>10</v>
       </c>
       <c r="B27">
-        <v>1.17E-2</v>
+        <v>8.6668600000000002E-3</v>
       </c>
       <c r="C27">
-        <v>8.8999999999999999E-3</v>
+        <v>6.3565799999999997E-3</v>
       </c>
       <c r="D27">
-        <v>6.3799999999999996E-2</v>
+        <v>2.5416600000000001E-2</v>
       </c>
       <c r="E27">
-        <v>7.6600000000000001E-2</v>
+        <v>6.21062E-2</v>
       </c>
       <c r="F27">
-        <v>0.1971</v>
+        <v>8.44086E-2</v>
       </c>
       <c r="G27">
-        <v>0.42380000000000001</v>
+        <v>0.21443499999999999</v>
       </c>
     </row>
     <row r="28" spans="1:10">
@@ -1807,22 +1831,22 @@
         <v>12</v>
       </c>
       <c r="B28">
-        <v>1.14E-2</v>
+        <v>8.8071599999999996E-3</v>
       </c>
       <c r="C28">
-        <v>5.7999999999999996E-3</v>
+        <v>6.5234100000000003E-3</v>
       </c>
       <c r="D28">
-        <v>4.5100000000000001E-2</v>
+        <v>2.2262799999999999E-2</v>
       </c>
       <c r="E28">
-        <v>0.1744</v>
+        <v>7.7932899999999999E-2</v>
       </c>
       <c r="F28">
-        <v>9.0399999999999994E-2</v>
+        <v>5.5342700000000002E-2</v>
       </c>
       <c r="G28">
-        <v>0.2243</v>
+        <v>0.153361</v>
       </c>
     </row>
     <row r="29" spans="1:10">
@@ -1830,22 +1854,22 @@
         <v>14</v>
       </c>
       <c r="B29">
-        <v>1.3899999999999999E-2</v>
+        <v>8.5913699999999992E-3</v>
       </c>
       <c r="C29">
-        <v>2.06E-2</v>
+        <v>9.8628399999999995E-3</v>
       </c>
       <c r="D29">
-        <v>5.2499999999999998E-2</v>
+        <v>2.7308499999999999E-2</v>
       </c>
       <c r="E29">
-        <v>0.17480000000000001</v>
+        <v>0.20714299999999999</v>
       </c>
       <c r="F29">
-        <v>1.3331999999999999</v>
+        <v>0.55456300000000003</v>
       </c>
       <c r="G29">
-        <v>0.33760000000000001</v>
+        <v>0.193216</v>
       </c>
     </row>
     <row r="30" spans="1:10">
@@ -1853,22 +1877,22 @@
         <v>16</v>
       </c>
       <c r="B30">
-        <v>1.5299999999999999E-2</v>
+        <v>1.00673E-2</v>
       </c>
       <c r="C30">
-        <v>1.21E-2</v>
+        <v>8.5491300000000003E-3</v>
       </c>
       <c r="D30">
-        <v>0.06</v>
+        <v>3.03889E-2</v>
       </c>
       <c r="E30">
-        <v>0.3518</v>
+        <v>0.118483</v>
       </c>
       <c r="F30">
-        <v>0.85570000000000002</v>
+        <v>0.488483</v>
       </c>
       <c r="G30">
-        <v>0.33410000000000001</v>
+        <v>0.19860700000000001</v>
       </c>
     </row>
     <row r="31" spans="1:10" ht="18">
@@ -1899,6 +1923,282 @@
       <c r="E33" s="1"/>
       <c r="F33" s="1"/>
       <c r="G33" s="1"/>
+    </row>
+    <row r="36" spans="1:7">
+      <c r="A36" t="s">
+        <v>6</v>
+      </c>
+      <c r="B36">
+        <v>22.527100000000001</v>
+      </c>
+      <c r="C36">
+        <v>22.5215</v>
+      </c>
+      <c r="D36">
+        <v>22.281300000000002</v>
+      </c>
+      <c r="E36">
+        <v>41.267400000000002</v>
+      </c>
+      <c r="F36">
+        <v>41.201599999999999</v>
+      </c>
+      <c r="G36">
+        <v>40.050899999999999</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7">
+      <c r="A37" t="s">
+        <v>7</v>
+      </c>
+      <c r="B37">
+        <v>22.531400000000001</v>
+      </c>
+      <c r="C37">
+        <v>22.520399999999999</v>
+      </c>
+      <c r="D37">
+        <v>22.278500000000001</v>
+      </c>
+      <c r="E37">
+        <v>41.246499999999997</v>
+      </c>
+      <c r="F37">
+        <v>41.2346</v>
+      </c>
+      <c r="G37">
+        <v>40.006</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7">
+      <c r="A38" t="s">
+        <v>8</v>
+      </c>
+      <c r="B38">
+        <v>25.123100000000001</v>
+      </c>
+      <c r="C38">
+        <v>25.12</v>
+      </c>
+      <c r="D38">
+        <v>24.847100000000001</v>
+      </c>
+      <c r="E38">
+        <v>45.792700000000004</v>
+      </c>
+      <c r="F38">
+        <v>45.622799999999998</v>
+      </c>
+      <c r="G38">
+        <v>44.989899999999999</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7">
+      <c r="A39" t="s">
+        <v>9</v>
+      </c>
+      <c r="B39">
+        <v>25.150300000000001</v>
+      </c>
+      <c r="C39">
+        <v>25.1433</v>
+      </c>
+      <c r="D39">
+        <v>24.867599999999999</v>
+      </c>
+      <c r="E39">
+        <v>45.600299999999997</v>
+      </c>
+      <c r="F39">
+        <v>45.630699999999997</v>
+      </c>
+      <c r="G39">
+        <v>45.021299999999997</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7">
+      <c r="A40" t="s">
+        <v>11</v>
+      </c>
+      <c r="B40">
+        <v>8.6668600000000002E-3</v>
+      </c>
+      <c r="C40">
+        <v>6.3565799999999997E-3</v>
+      </c>
+      <c r="D40">
+        <v>2.5416600000000001E-2</v>
+      </c>
+      <c r="E40">
+        <v>6.21062E-2</v>
+      </c>
+      <c r="F40">
+        <v>8.44086E-2</v>
+      </c>
+      <c r="G40">
+        <v>0.21443499999999999</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7">
+      <c r="A41" t="s">
+        <v>13</v>
+      </c>
+      <c r="B41">
+        <v>8.8071599999999996E-3</v>
+      </c>
+      <c r="C41">
+        <v>6.5234100000000003E-3</v>
+      </c>
+      <c r="D41">
+        <v>2.2262799999999999E-2</v>
+      </c>
+      <c r="E41">
+        <v>7.7932899999999999E-2</v>
+      </c>
+      <c r="F41">
+        <v>5.5342700000000002E-2</v>
+      </c>
+      <c r="G41">
+        <v>0.153361</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7">
+      <c r="A42" t="s">
+        <v>15</v>
+      </c>
+      <c r="B42">
+        <v>8.5913699999999992E-3</v>
+      </c>
+      <c r="C42">
+        <v>9.8628399999999995E-3</v>
+      </c>
+      <c r="D42">
+        <v>2.7308499999999999E-2</v>
+      </c>
+      <c r="E42">
+        <v>0.20714299999999999</v>
+      </c>
+      <c r="F42">
+        <v>0.55456300000000003</v>
+      </c>
+      <c r="G42">
+        <v>0.193216</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7">
+      <c r="A43" t="s">
+        <v>17</v>
+      </c>
+      <c r="B43">
+        <v>1.00673E-2</v>
+      </c>
+      <c r="C43">
+        <v>8.5491300000000003E-3</v>
+      </c>
+      <c r="D43">
+        <v>3.03889E-2</v>
+      </c>
+      <c r="E43">
+        <v>0.118483</v>
+      </c>
+      <c r="F43">
+        <v>0.488483</v>
+      </c>
+      <c r="G43">
+        <v>0.19860700000000001</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7">
+      <c r="A44" t="s">
+        <v>10</v>
+      </c>
+      <c r="B44">
+        <v>8.6668600000000002E-3</v>
+      </c>
+      <c r="C44">
+        <v>6.3565799999999997E-3</v>
+      </c>
+      <c r="D44">
+        <v>2.5416600000000001E-2</v>
+      </c>
+      <c r="E44">
+        <v>6.21062E-2</v>
+      </c>
+      <c r="F44">
+        <v>8.44086E-2</v>
+      </c>
+      <c r="G44">
+        <v>0.21443499999999999</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7">
+      <c r="A45" t="s">
+        <v>12</v>
+      </c>
+      <c r="B45">
+        <v>8.8071599999999996E-3</v>
+      </c>
+      <c r="C45">
+        <v>6.5234100000000003E-3</v>
+      </c>
+      <c r="D45">
+        <v>2.2262799999999999E-2</v>
+      </c>
+      <c r="E45">
+        <v>7.7932899999999999E-2</v>
+      </c>
+      <c r="F45">
+        <v>5.5342700000000002E-2</v>
+      </c>
+      <c r="G45">
+        <v>0.153361</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7">
+      <c r="A46" t="s">
+        <v>14</v>
+      </c>
+      <c r="B46">
+        <v>8.5913699999999992E-3</v>
+      </c>
+      <c r="C46">
+        <v>9.8628399999999995E-3</v>
+      </c>
+      <c r="D46">
+        <v>2.7308499999999999E-2</v>
+      </c>
+      <c r="E46">
+        <v>0.20714299999999999</v>
+      </c>
+      <c r="F46">
+        <v>0.55456300000000003</v>
+      </c>
+      <c r="G46">
+        <v>0.193216</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7">
+      <c r="A47" t="s">
+        <v>16</v>
+      </c>
+      <c r="B47">
+        <v>1.00673E-2</v>
+      </c>
+      <c r="C47">
+        <v>8.5491300000000003E-3</v>
+      </c>
+      <c r="D47">
+        <v>3.03889E-2</v>
+      </c>
+      <c r="E47">
+        <v>0.118483</v>
+      </c>
+      <c r="F47">
+        <v>0.488483</v>
+      </c>
+      <c r="G47">
+        <v>0.19860700000000001</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="2">
